--- a/Complexity Calculator.xlsx
+++ b/Complexity Calculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\Optimizations-in-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C83AAB-8D60-4F6E-98B9-8E413B4B7BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8718D36-F5A0-47AF-A12B-4CB670593A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>n</t>
   </si>
@@ -61,9 +61,6 @@
     <t>n^n</t>
   </si>
   <si>
-    <t>complexities</t>
-  </si>
-  <si>
     <t>base for log</t>
   </si>
   <si>
@@ -71,6 +68,78 @@
   </si>
   <si>
     <t>input size (n)</t>
+  </si>
+  <si>
+    <t>x^n</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>n &lt; 10^6</t>
+  </si>
+  <si>
+    <t>n &lt; 10^8</t>
+  </si>
+  <si>
+    <t>To Avoid TLE</t>
+  </si>
+  <si>
+    <t>n &lt; 10^4</t>
+  </si>
+  <si>
+    <t>n &lt; 2000</t>
+  </si>
+  <si>
+    <t>n &lt; 400</t>
+  </si>
+  <si>
+    <t>n &lt; 100</t>
+  </si>
+  <si>
+    <t>n &lt; 11</t>
+  </si>
+  <si>
+    <t>n &lt; 18</t>
+  </si>
+  <si>
+    <t>n, log n</t>
+  </si>
+  <si>
+    <t>n^2 log n</t>
+  </si>
+  <si>
+    <t>max O(...)</t>
+  </si>
+  <si>
+    <t>n^4</t>
+  </si>
+  <si>
+    <t>2^n n^2</t>
+  </si>
+  <si>
+    <t>n! , n^6</t>
+  </si>
+  <si>
+    <t>According to the fact that modern machines can perform 10^8 Operations/Second</t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>complexities in Big O(...)</t>
   </si>
 </sst>
 </file>
@@ -115,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -128,6 +197,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,46 +496,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -480,16 +562,19 @@
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -522,16 +607,20 @@
         <v>1</v>
       </c>
       <c r="J3" s="4">
+        <f>$B$1^B3</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
         <f>FACT(B3)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <f>B3^B3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" s="1">
         <v>10</v>
       </c>
@@ -563,13 +652,17 @@
         <v>1000</v>
       </c>
       <c r="J4" s="4">
+        <f t="shared" ref="J4" si="5">$B$1^B4</f>
+        <v>1024</v>
+      </c>
+      <c r="K4" s="4">
         <f>FACT(B4)</f>
         <v>3628800</v>
       </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>100</v>
       </c>
@@ -577,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D9" si="5">LOG(B5,$B$2)</f>
+        <f t="shared" ref="D5:D9" si="6">LOG(B5,$B$2)</f>
         <v>6.6438561897747253</v>
       </c>
       <c r="E5" s="4">
@@ -585,26 +678,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F9" si="6">B5</f>
+        <f t="shared" ref="F5:F9" si="7">B5</f>
         <v>100</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G8" si="7">B5*D5</f>
+        <f t="shared" ref="G5:G8" si="8">B5*D5</f>
         <v>664.38561897747252</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5:H6" si="8">B5^(2)</f>
+        <f t="shared" ref="H5:H6" si="9">B5^(2)</f>
         <v>10000</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5" si="9">B5^(3)</f>
+        <f t="shared" ref="I5" si="10">B5^(3)</f>
         <v>1000000</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
       <c r="B6" s="1">
         <v>1000</v>
       </c>
@@ -612,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.965784284662087</v>
       </c>
       <c r="E6" s="4">
@@ -620,23 +714,24 @@
         <v>31.622776601683793</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1000</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9965.7842846620879</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1000000</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>10000</v>
       </c>
@@ -644,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.287712379549451</v>
       </c>
       <c r="E7" s="4">
@@ -652,20 +747,21 @@
         <v>100</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>132877.1237954945</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
       <c r="B8" s="1">
         <v>100000</v>
       </c>
@@ -673,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.609640474436812</v>
       </c>
       <c r="E8" s="4">
@@ -681,20 +777,21 @@
         <v>316.22776601683796</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100000</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1660964.0474436812</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
       <c r="B9" s="1">
         <v>1000000</v>
       </c>
@@ -702,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.931568569324174</v>
       </c>
       <c r="E9" s="4">
@@ -710,17 +807,187 @@
         <v>1000</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
       <c r="G9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="G18" s="3"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="G22" s="3"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G23" s="3"/>
+      <c r="J23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A3:A9"/>
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:K3 F4:K8 F9:G9 C4:E9">
+  <conditionalFormatting sqref="C3:L9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -732,18 +999,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D9 F4:K9">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>